--- a/contratos/contratos-8-2021.xlsx
+++ b/contratos/contratos-8-2021.xlsx
@@ -70,13 +70,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>98,00</t>
-  </si>
-  <si>
-    <t>9.174,00</t>
-  </si>
-  <si>
-    <t>48.000,00</t>
+    <t>98.00</t>
+  </si>
+  <si>
+    <t>9174.00</t>
+  </si>
+  <si>
+    <t>48000.00</t>
   </si>
 </sst>
 </file>
